--- a/Datos_Sal/DMtest_mod1_vs_mod2.xlsx
+++ b/Datos_Sal/DMtest_mod1_vs_mod2.xlsx
@@ -340,7 +340,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.999701057352144</v>
+        <v>0.999869258432049</v>
       </c>
     </row>
   </sheetData>
